--- a/src/test/resources/TestDataUSR.xlsx
+++ b/src/test/resources/TestDataUSR.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\RestAssuredHackathon_Mar24\RestAssured\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB85258-B129-4AF4-90BD-879E97FF6C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B91E48-9011-4E67-AB51-6EC2210B5B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
-    <sheet name="USR" sheetId="2" r:id="rId2"/>
+    <sheet name="Program" sheetId="3" r:id="rId2"/>
+    <sheet name="USR" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>userLoginEmailId</t>
   </si>
@@ -38,6 +39,78 @@
   </si>
   <si>
     <t>lmsHackathon@2024</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>programName</t>
+  </si>
+  <si>
+    <t>programDescription</t>
+  </si>
+  <si>
+    <t>programStatus</t>
+  </si>
+  <si>
+    <t>endPoint</t>
+  </si>
+  <si>
+    <t>statusCode</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 201</t>
+  </si>
+  <si>
+    <t>/saveprogram</t>
+  </si>
+  <si>
+    <t>authorization</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 401</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 404</t>
+  </si>
+  <si>
+    <t>/savepgm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 405</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 200</t>
+  </si>
+  <si>
+    <t>MAR24-APITroopers-SDET</t>
+  </si>
+  <si>
+    <t>Software Testing Course</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -73,8 +146,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -388,6 +462,211 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03636777-77DB-441F-865F-6037491197E6}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167F28B4-B2EE-4459-9A76-3FBA7234D5D3}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/TestDataUSR.xlsx
+++ b/src/test/resources/TestDataUSR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Git Project1\RestAssured\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F25AE8-2B45-430A-B887-449D32F814B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B9940B-F199-4FF2-BEF0-7CA39658D2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
   <si>
     <t>userLoginEmailId</t>
   </si>
@@ -202,9 +202,6 @@
     <t>us</t>
   </si>
   <si>
-    <t>bcds</t>
-  </si>
-  <si>
     <t>mm</t>
   </si>
   <si>
@@ -229,24 +226,31 @@
     <t>R03</t>
   </si>
   <si>
-    <t>shuser0050@gmail.com</t>
-  </si>
-  <si>
-    <t>shuser0051@gmail.com</t>
-  </si>
-  <si>
-    <t>shuser0053@gmail.com</t>
+    <t>shuser0212@gmail.com</t>
+  </si>
+  <si>
+    <t>shuser0213@gmail.com</t>
+  </si>
+  <si>
+    <t>shuser0214@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,23 +316,24 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3823,7 +3828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F2D05-189F-4CF2-8AD4-F802B24E3ADB}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -3831,7 +3836,8 @@
   <cols>
     <col min="1" max="1" width="15.7265625" customWidth="1"/>
     <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
@@ -3918,35 +3924,35 @@
       <c r="I2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>59</v>
+      <c r="J2" s="8">
+        <v>345</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="8">
+        <v>1000000071</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="O2" s="8">
-        <v>1000000004</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="R2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>64</v>
+      <c r="A3" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>54</v>
@@ -3955,7 +3961,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>56</v>
@@ -3969,35 +3975,35 @@
       <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>59</v>
+      <c r="J3" s="8">
+        <v>676</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O3" s="8">
-        <v>1000000005</v>
+        <v>1000000072</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="R3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>66</v>
+      <c r="A4" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>54</v>
@@ -4006,7 +4012,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>56</v>
@@ -4020,30 +4026,30 @@
       <c r="I4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>59</v>
+      <c r="J4" s="8">
+        <v>7876</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O4" s="8">
-        <v>1000000006</v>
+        <v>1000000073</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="R4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestDataUSR.xlsx
+++ b/src/test/resources/TestDataUSR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Git Project1\RestAssured\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\RestAssuredHackathon_Mar24\RestAssured\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B9940B-F199-4FF2-BEF0-7CA39658D2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B05B4AB-DECA-4C0F-965D-8BA228C89FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="137">
   <si>
     <t>userLoginEmailId</t>
   </si>
@@ -37,9 +37,6 @@
     <t>lmsHackathon@2024</t>
   </si>
   <si>
-    <t>scenario</t>
-  </si>
-  <si>
     <t>programName</t>
   </si>
   <si>
@@ -58,12 +55,6 @@
     <t>authorization</t>
   </si>
   <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>MAR24-APITroopers-SDET</t>
-  </si>
-  <si>
     <t>Software Testing Course</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Negative</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 401</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> 200</t>
-  </si>
-  <si>
     <t>batchDescription</t>
   </si>
   <si>
@@ -233,6 +218,222 @@
   </si>
   <si>
     <t>shuser0214@gmail.com</t>
+  </si>
+  <si>
+    <t>scenarioDescription</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>P_with Authorization for ProgramId_1</t>
+  </si>
+  <si>
+    <t>MAR24-APITrooper-SDET</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>N_valid endpoint and request body without Authorization</t>
+  </si>
+  <si>
+    <t>N_invalid endpoint</t>
+  </si>
+  <si>
+    <t>N_invalid method for POST</t>
+  </si>
+  <si>
+    <t>N_invalid request body</t>
+  </si>
+  <si>
+    <t>N_missing values in the request body</t>
+  </si>
+  <si>
+    <t>N_missing additional field</t>
+  </si>
+  <si>
+    <t>P_with Authorization for programId</t>
+  </si>
+  <si>
+    <t>MAR24-APITrooper-SDET-Updated</t>
+  </si>
+  <si>
+    <t>Software Testing Course-Updated</t>
+  </si>
+  <si>
+    <t>/putprogram/{programId}</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>P_with Authorization for programName</t>
+  </si>
+  <si>
+    <t>/program/{programName}</t>
+  </si>
+  <si>
+    <t>N_valid endpoint and request body without Authorization for programId</t>
+  </si>
+  <si>
+    <t>N_invalid method for PUT for programId</t>
+  </si>
+  <si>
+    <t>N_invalid endpoint for programId</t>
+  </si>
+  <si>
+    <t>/put1pgm/{programId}</t>
+  </si>
+  <si>
+    <t>N_invalid request body for programId</t>
+  </si>
+  <si>
+    <t>N_missing values in the request body for programId</t>
+  </si>
+  <si>
+    <t>N_missing additional field for programId</t>
+  </si>
+  <si>
+    <t>N_valid endpoint and request body without Authorization for programName</t>
+  </si>
+  <si>
+    <t>N_invalid method for PUT for programName</t>
+  </si>
+  <si>
+    <t>N_invalid endpoint for programName</t>
+  </si>
+  <si>
+    <t>/prom/{programName}</t>
+  </si>
+  <si>
+    <t>N_invalid request body for programName</t>
+  </si>
+  <si>
+    <t>N_missing values in the request body for programName</t>
+  </si>
+  <si>
+    <t>N_missing additional field for programName</t>
+  </si>
+  <si>
+    <t>P_with Authorization for all programs</t>
+  </si>
+  <si>
+    <t>/allPrograms/</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/programs/{programId}</t>
+  </si>
+  <si>
+    <t>P_with Authorization for admins</t>
+  </si>
+  <si>
+    <t>/allProgramsWithUsers/</t>
+  </si>
+  <si>
+    <t>N_invalid Endpoint for allprograms</t>
+  </si>
+  <si>
+    <t>/alPrograms/</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>N_without Authorization for allprograms</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>N_invalid Endpoint with ProgramId</t>
+  </si>
+  <si>
+    <t>/programxx/{programId}</t>
+  </si>
+  <si>
+    <t>N_without Authorization with ProgramId</t>
+  </si>
+  <si>
+    <t>/Programs/{programId}</t>
+  </si>
+  <si>
+    <t>N_invalid Endpoint for admins</t>
+  </si>
+  <si>
+    <t>/allProgramsWith/</t>
+  </si>
+  <si>
+    <t>N_without Authorization for admins</t>
+  </si>
+  <si>
+    <t>P_invalid method for GET for all programs</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>P_invalid method for GET for program id</t>
+  </si>
+  <si>
+    <t>P_invalid method for GET for program for admins</t>
+  </si>
+  <si>
+    <t>P_invalid program id for GET</t>
+  </si>
+  <si>
+    <t>/programs/-1234</t>
+  </si>
+  <si>
+    <t>P_delete by valid programId</t>
+  </si>
+  <si>
+    <t>/deletebyprogid/{programId}</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>P_delete by valid programName</t>
+  </si>
+  <si>
+    <t>/deletebyprogname/{programName}</t>
+  </si>
+  <si>
+    <t>P_delete by Invalid programId</t>
+  </si>
+  <si>
+    <t>/deletebyprogid/-1234</t>
+  </si>
+  <si>
+    <t>P_delete by Invalid programName</t>
+  </si>
+  <si>
+    <t>/deletebyprogname/acdPrgm00032</t>
+  </si>
+  <si>
+    <t>P_delete by valid programId without Auth</t>
+  </si>
+  <si>
+    <t>P_delete by valid programName without Auth</t>
+  </si>
+  <si>
+    <t>P_delete by valid programId and invalid endpoint</t>
+  </si>
+  <si>
+    <t>/delete1byprogid/{programId}</t>
+  </si>
+  <si>
+    <t>P_delete by valid programName and invalid endpoint</t>
+  </si>
+  <si>
+    <t>/delete1byprogname/{programName}</t>
   </si>
 </sst>
 </file>
@@ -264,16 +465,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -288,6 +493,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -319,21 +525,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1585,9 +1793,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1599,230 +1809,930 @@
     <col min="7" max="7" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H3" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="F4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="G4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H9" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="E14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="G18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H18" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="G20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="H20" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="H21" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2800,42 +3710,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>16306</v>
       </c>
     </row>
@@ -3828,7 +4738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F2D05-189F-4CF2-8AD4-F802B24E3ADB}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -3841,215 +4751,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="J1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="D2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="I2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="7">
+        <v>345</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="O2" s="7">
+        <v>1000000071</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="I3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="7">
+        <v>676</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1000000072</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="S3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="8">
-        <v>345</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="8">
-        <v>1000000071</v>
-      </c>
-      <c r="P2" s="8" t="s">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="8" t="s">
+      <c r="B4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="7">
+        <v>7876</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1000000073</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="Q4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="S4" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="8">
-        <v>676</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="8">
-        <v>1000000072</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="8">
-        <v>7876</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="8">
-        <v>1000000073</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestDataUSR.xlsx
+++ b/src/test/resources/TestDataUSR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\RestAssuredHackathon_Mar24\RestAssured\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Git Project 1st April part2\RestAssured\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B05B4AB-DECA-4C0F-965D-8BA228C89FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA013F0-05B6-48BE-BCB9-45F2FCABF56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>batchName</t>
   </si>
   <si>
-    <t>API Troopers  Team4 SDET 6</t>
-  </si>
-  <si>
     <t>batchNoOfClasses</t>
   </si>
   <si>
@@ -211,15 +208,6 @@
     <t>R03</t>
   </si>
   <si>
-    <t>shuser0212@gmail.com</t>
-  </si>
-  <si>
-    <t>shuser0213@gmail.com</t>
-  </si>
-  <si>
-    <t>shuser0214@gmail.com</t>
-  </si>
-  <si>
     <t>scenarioDescription</t>
   </si>
   <si>
@@ -434,6 +422,18 @@
   </si>
   <si>
     <t>/delete1byprogname/{programName}</t>
+  </si>
+  <si>
+    <t>API Troopers  Team4 SDET 21</t>
+  </si>
+  <si>
+    <t>shuser0503@gmail.com</t>
+  </si>
+  <si>
+    <t>shuser0504@gmail.com</t>
+  </si>
+  <si>
+    <t>shuser0505@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1795,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1811,7 +1811,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>4</v>
@@ -1832,15 +1832,15 @@
         <v>9</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>10</v>
@@ -1858,15 +1858,15 @@
         <v>14</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>10</v>
@@ -1884,15 +1884,15 @@
         <v>16</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>10</v>
@@ -1910,15 +1910,15 @@
         <v>14</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>10</v>
@@ -1936,15 +1936,15 @@
         <v>14</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>10</v>
@@ -1962,15 +1962,15 @@
         <v>14</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>10</v>
@@ -1988,15 +1988,15 @@
         <v>14</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>22</v>
@@ -2014,24 +2014,24 @@
         <v>14</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>13</v>
@@ -2040,24 +2040,24 @@
         <v>14</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>13</v>
@@ -2066,24 +2066,24 @@
         <v>14</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>15</v>
@@ -2092,24 +2092,24 @@
         <v>16</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>18</v>
@@ -2118,24 +2118,24 @@
         <v>14</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>19</v>
@@ -2144,24 +2144,24 @@
         <v>14</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>21</v>
@@ -2170,21 +2170,21 @@
         <v>14</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>21</v>
@@ -2193,22 +2193,22 @@
         <v>14</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>21</v>
@@ -2217,24 +2217,24 @@
         <v>14</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>15</v>
@@ -2243,24 +2243,24 @@
         <v>16</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>18</v>
@@ -2269,24 +2269,24 @@
         <v>14</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>19</v>
@@ -2295,24 +2295,24 @@
         <v>14</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>21</v>
@@ -2321,21 +2321,21 @@
         <v>14</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>21</v>
@@ -2344,22 +2344,22 @@
         <v>14</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>21</v>
@@ -2368,364 +2368,364 @@
         <v>14</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3699,7 +3699,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3722,12 +3722,12 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="4" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -3743,10 +3743,10 @@
     </row>
     <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4">
-        <v>16306</v>
+        <v>17024</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4738,8 +4738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F2D05-189F-4CF2-8AD4-F802B24E3ADB}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4752,84 +4752,84 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>11</v>
@@ -4839,48 +4839,48 @@
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="7">
+        <v>8787878786</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="O2" s="7">
-        <v>1000000071</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="R2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>11</v>
@@ -4890,48 +4890,48 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O3" s="7">
-        <v>1000000072</v>
+        <v>8787878787</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="R3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>11</v>
@@ -4941,25 +4941,25 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O4" s="7">
-        <v>1000000073</v>
+        <v>8787878788</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="R4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4967,9 +4967,10 @@
     <hyperlink ref="G2" r:id="rId1" xr:uid="{C541932C-BABE-4ABB-8F85-303BDD416EAB}"/>
     <hyperlink ref="M2" r:id="rId2" xr:uid="{3507C7B0-EABB-4151-B8B1-BBE04E8801E2}"/>
     <hyperlink ref="G3" r:id="rId3" xr:uid="{A73AB216-AFE2-46FF-BD45-FB4B71BCF2B0}"/>
-    <hyperlink ref="M3" r:id="rId4" xr:uid="{9335CE19-781A-4C79-B78B-AD727CC84174}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{679EC1CE-D71E-4C88-9517-5E2033B411F8}"/>
-    <hyperlink ref="M4" r:id="rId6" xr:uid="{A164F845-B2EE-4B13-9023-D4CAA64B6121}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{679EC1CE-D71E-4C88-9517-5E2033B411F8}"/>
+    <hyperlink ref="M3:M4" r:id="rId5" display="shuser0503@gmail.com" xr:uid="{75446CA4-428D-4864-B3D6-2BADDE184343}"/>
+    <hyperlink ref="M3" r:id="rId6" xr:uid="{5324A55C-1FB6-4C8F-BD74-21AD7DD6883B}"/>
+    <hyperlink ref="M4" r:id="rId7" xr:uid="{63CAB46E-D8FB-4DDD-826F-F6B5B107DAF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
